--- a/Defects/Defect 003.xlsx
+++ b/Defects/Defect 003.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Class12Capstone\Defects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7B004A0-42AA-4507-B4E4-C301A4298461}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9AD67B8-8996-422E-B0C7-32A89663E276}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{92CE22E6-308D-471F-A08B-0C839644C488}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FED45C67-FC70-4660-8F7F-74944D98032C}"/>
   </bookViews>
   <sheets>
     <sheet name="Defect3" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t xml:space="preserve">TC_SpecialtyAdd06_ Specialty missing on the website. </t>
+    <t>TC_PET_SPECIALTIES_06(2.0) Webpage should show all of the petclinic specialties</t>
   </si>
   <si>
     <t>Reporter</t>
@@ -74,7 +74,7 @@
     <t>Summary</t>
   </si>
   <si>
-    <t xml:space="preserve">When you navigate to the specialty page it is always randomly missing one of the types. But you can find it in the backend. </t>
+    <t xml:space="preserve">When you navigate to the specialty page on the website it is always randomly missing one of the types. But you can find it in the API. </t>
   </si>
   <si>
     <t>URL</t>
@@ -114,22 +114,22 @@
   </si>
   <si>
     <t>1. Navigate to url above.
-2. Click on the Specialties Ta
-3. Take a count of the amount of specialties that are avaliable to select from (10).
-4. Navigate to "http://clinic.doveryai-no-proveryai.com:9966/petclinic/swagger-ui.html#!/specialty-rest-controller/getAllSpecialtysUsingGET"
-5. Count the amount of specialties located in the backend (11).</t>
+2. Click on the Specialties Tab. 
+3.Take a count of the amount of specialties that are avaliable to select from (10). 
+4. Navigate to "http://clinic.doveryai-no-proveryai.com:9966/petclinic/swagger-ui.html#!/specialty-rest-controller/getAllSpecialtysUsingGET" 
+5. Count the amount of specialties located in the API (11).</t>
   </si>
   <si>
     <t>Expected result</t>
   </si>
   <si>
-    <t xml:space="preserve">The amount of specialties shown on the website should match the amount of specialties shown in the backend. </t>
+    <t xml:space="preserve">The amount of specialties shown on the website should match the amount of specialties shown in the API. </t>
   </si>
   <si>
     <t>Actual result</t>
   </si>
   <si>
-    <t xml:space="preserve">Website will take you to page showing that there are eleven specialties on the backend but only ten are actually being shown on the website. </t>
+    <t xml:space="preserve">Website will take you to page showing that there are eleven specialties in the API but only ten are actually being shown on the website. </t>
   </si>
   <si>
     <t>Description</t>
@@ -313,7 +313,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{56754288-F12A-42DC-86F8-6AE710A139DA}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{40DAF17E-2409-4AF0-A945-DB8C9018EFE7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -348,7 +348,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AA66ACB-B8BA-401C-8110-C768E6630E2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C922E7E3-9162-4E05-9A70-0C6EB2DA6417}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -678,11 +678,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC28D47-FBD8-4851-9DA7-C6D7FC22B659}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB5F8B8-6986-4940-926E-9F80F55ED36D}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -808,7 +808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="5" t="s">
         <v>27</v>
@@ -882,7 +882,7 @@
     <mergeCell ref="A16:A18"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{1DA10D3E-27A2-40B7-B806-4E345855801F}"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{3E1EA163-3043-44AA-8E83-B359F5A1B502}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
